--- a/Oroboros/Chemicals Oroboros.xlsx
+++ b/Oroboros/Chemicals Oroboros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anu365-my.sharepoint.com/personal/u7409838_anu_edu_au/Documents/PhD/Papers/OROBOROS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anu365-my.sharepoint.com/personal/u7409838_anu_edu_au/Documents/GitHub/Thesis/Meetings/Oroboros/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AF8FC311FFC988B86A9556C7748FEF396EB8259C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90BC85AB-C679-BF41-8155-0A5B1FA6CEFF}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="11_AF8FC311FFC988B86A9556C7748FEF396EB8259C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1494C135-A94B-284F-ADAB-56C2719D39AA}"/>
   <bookViews>
-    <workbookView xWindow="5900" yWindow="2840" windowWidth="27920" windowHeight="14900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="400" yWindow="1220" windowWidth="27920" windowHeight="14900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chemicals" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="129">
   <si>
     <t>Chemicals</t>
   </si>
@@ -431,12 +431,27 @@
   <si>
     <t>s7900</t>
   </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Ondi will call</t>
+  </si>
+  <si>
+    <t>Order later</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>In Thermofisher, links sent to Ondi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -473,13 +488,52 @@
       <name val="Comic Sans MS"/>
       <family val="4"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -494,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -505,27 +559,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -843,8 +919,8 @@
   <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1271,7 +1347,7 @@
       <c r="C38" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="8"/>
+      <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -1707,416 +1783,445 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.83203125" customWidth="1"/>
-    <col min="2" max="2" width="71.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="71.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="14">
         <v>1905</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="13" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D2" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="13" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D3" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="13" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="D8" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="12">
         <v>32221</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="15" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="D15" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="8">
         <v>88597</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:4" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="16" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="D23" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="18" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="D24" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
+    <row r="26" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="13" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="D30" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="8">
         <v>75351</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="20" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="15" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="D32" s="24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="8" t="s">
         <v>75</v>
       </c>
     </row>
